--- a/ru/downloads/data-excel/3.5.2.1.xlsx
+++ b/ru/downloads/data-excel/3.5.2.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\ПоказателиЦУР для Платформы\Национальные показатели ЦУР\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\Показатели ЦУР для Платформы\Национальные показатели ЦУР\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -222,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -258,6 +258,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -540,9 +547,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -550,7 +559,7 @@
     <col min="4" max="16384" width="8.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -569,7 +578,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -581,8 +590,9 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L2" s="17"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -610,8 +620,11 @@
       <c r="K3" s="5">
         <v>2019</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="13">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -645,8 +658,11 @@
       <c r="K4" s="8">
         <v>18.446483900370399</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="14">
+        <v>15.121199070053857</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -680,8 +696,11 @@
       <c r="K5" s="9">
         <v>4.9186955004695818</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="15">
+        <v>4.0418020313117182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -715,8 +734,11 @@
       <c r="K6" s="9">
         <v>32.182343723662605</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="15">
+        <v>26.038712293651503</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>16</v>
       </c>
@@ -750,8 +772,11 @@
       <c r="K7" s="9">
         <v>7.7177196961853767</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="15">
+        <v>6.6322037707763002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -785,8 +810,11 @@
       <c r="K8" s="9">
         <v>1.9186124594693119</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="15">
+        <v>0.72337439688659655</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -820,8 +848,11 @@
       <c r="K9" s="9">
         <v>13.301803133313628</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="15">
+        <v>12.766404830206815</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
@@ -855,8 +886,11 @@
       <c r="K10" s="9">
         <v>4.5654952910177142</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="15">
+        <v>3.4408726052927023</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -890,8 +924,11 @@
       <c r="K11" s="9">
         <v>0.49230042140916069</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="15">
+        <v>0.31797968427797146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -925,8 +962,11 @@
       <c r="K12" s="9">
         <v>8.5870565514380885</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="15">
+        <v>6.6053177641160472</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>18</v>
       </c>
@@ -960,8 +1000,11 @@
       <c r="K13" s="9">
         <v>6.086340831028977</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="15">
+        <v>3.8076839061225556</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -995,8 +1038,11 @@
       <c r="K14" s="9">
         <v>1.2124102311258036</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="15">
+        <v>0.40244525738386439</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -1030,8 +1076,11 @@
       <c r="K15" s="9">
         <v>10.999486690621104</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" s="15">
+        <v>7.1853419025188616</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>19</v>
       </c>
@@ -1065,8 +1114,11 @@
       <c r="K16" s="9">
         <v>23.236859902543916</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="15">
+        <v>21.314558187024932</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -1100,8 +1152,11 @@
       <c r="K17" s="9">
         <v>3.5320462556777645</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="15">
+        <v>6.076523688314845</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -1135,8 +1190,11 @@
       <c r="K18" s="9">
         <v>42.241813945249156</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="15">
+        <v>37.122644813336137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>20</v>
       </c>
@@ -1170,8 +1228,11 @@
       <c r="K19" s="9">
         <v>20.960059278590187</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="15">
+        <v>17.175755080979702</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
@@ -1205,8 +1266,11 @@
       <c r="K20" s="9">
         <v>1.9402927155441327</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="15">
+        <v>1.8631795589137379</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>15</v>
       </c>
@@ -1240,8 +1304,11 @@
       <c r="K21" s="9">
         <v>39.564585170434306</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" s="15">
+        <v>32.838796692664047</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>21</v>
       </c>
@@ -1275,8 +1342,11 @@
       <c r="K22" s="9">
         <v>27.882861836651646</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" s="15">
+        <v>26.748199140342599</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
@@ -1310,8 +1380,11 @@
       <c r="K23" s="9">
         <v>5.3348372493579141</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" s="15">
+        <v>8.819184666377593</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>15</v>
       </c>
@@ -1345,8 +1418,11 @@
       <c r="K24" s="9">
         <v>49.931809543682881</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24" s="15">
+        <v>45.075501464953796</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>22</v>
       </c>
@@ -1380,8 +1456,11 @@
       <c r="K25" s="9">
         <v>32.298484285787929</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25" s="15">
+        <v>22.63720315804489</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>14</v>
       </c>
@@ -1415,8 +1494,11 @@
       <c r="K26" s="9">
         <v>13.268428603414963</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26" s="15">
+        <v>6.5075739764215905</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>15</v>
       </c>
@@ -1450,8 +1532,11 @@
       <c r="K27" s="9">
         <v>51.905220639908066</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27" s="15">
+        <v>38.284059576513137</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>23</v>
       </c>
@@ -1485,8 +1570,11 @@
       <c r="K28" s="9">
         <v>29.118376290145878</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28" s="15">
+        <v>23.966278037020849</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>14</v>
       </c>
@@ -1520,8 +1608,11 @@
       <c r="K29" s="9">
         <v>9.2276460274983858</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29" s="15">
+        <v>11.409880956908683</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
@@ -1555,8 +1646,11 @@
       <c r="K30" s="9">
         <v>51.650669306589769</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30" s="15">
+        <v>35.079762166299332</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>24</v>
       </c>
@@ -1590,8 +1684,11 @@
       <c r="K31" s="9">
         <v>9.4773409849244921</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31" s="15">
+        <v>16.385848928775125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
         <v>14</v>
       </c>
@@ -1625,8 +1722,11 @@
       <c r="K32" s="9">
         <v>3.1715021502784575</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L32" s="15">
+        <v>3.2448358437546645</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>15</v>
       </c>
@@ -1660,8 +1760,11 @@
       <c r="K33" s="12">
         <v>16.179157200736149</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33" s="16">
+        <v>28.789140981035917</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1674,7 +1777,7 @@
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1687,7 +1790,7 @@
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1700,7 +1803,7 @@
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>

--- a/ru/downloads/data-excel/3.5.2.1.xlsx
+++ b/ru/downloads/data-excel/3.5.2.1.xlsx
@@ -547,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,7 +559,7 @@
     <col min="4" max="16384" width="8.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -578,7 +578,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -591,8 +591,9 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="17"/>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M2" s="17"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -623,8 +624,11 @@
       <c r="L3" s="13">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M3" s="13">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -661,8 +665,11 @@
       <c r="L4" s="14">
         <v>15.121199070053857</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M4" s="14">
+        <v>16.60175395812114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -699,8 +706,11 @@
       <c r="L5" s="15">
         <v>4.0418020313117182</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M5" s="15">
+        <v>7.3576531459900787</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -737,8 +747,11 @@
       <c r="L6" s="15">
         <v>26.038712293651503</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M6" s="15">
+        <v>25.982831460241147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>16</v>
       </c>
@@ -775,8 +788,11 @@
       <c r="L7" s="15">
         <v>6.6322037707763002</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="15">
+        <v>4.6978046797362003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -813,8 +829,11 @@
       <c r="L8" s="15">
         <v>0.72337439688659655</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="15">
+        <v>0.36820478077087354</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -851,8 +870,11 @@
       <c r="L9" s="15">
         <v>12.766404830206815</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="15">
+        <v>8.8695886639561206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
@@ -889,8 +911,11 @@
       <c r="L10" s="15">
         <v>3.4408726052927023</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="15">
+        <v>4.8763798385289059</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -927,8 +952,11 @@
       <c r="L11" s="15">
         <v>0.31797968427797146</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="15">
+        <v>0.63362020488109327</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -965,8 +993,11 @@
       <c r="L12" s="15">
         <v>6.6053177641160472</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="15">
+        <v>9.0604897038469581</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>18</v>
       </c>
@@ -1003,8 +1034,11 @@
       <c r="L13" s="15">
         <v>3.8076839061225556</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="15">
+        <v>6.1518067459522099</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -1041,8 +1075,11 @@
       <c r="L14" s="15">
         <v>0.40244525738386439</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="15">
+        <v>2.7662407973096332</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -1079,8 +1116,11 @@
       <c r="L15" s="15">
         <v>7.1853419025188616</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="15">
+        <v>9.5668603955896767</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>19</v>
       </c>
@@ -1117,8 +1157,11 @@
       <c r="L16" s="15">
         <v>21.314558187024932</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="15">
+        <v>19.43893106341184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -1155,8 +1198,11 @@
       <c r="L17" s="15">
         <v>6.076523688314845</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="15">
+        <v>6.948932296552635</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -1193,8 +1239,11 @@
       <c r="L18" s="15">
         <v>37.122644813336137</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="15">
+        <v>31.476235442241109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>20</v>
       </c>
@@ -1231,8 +1280,11 @@
       <c r="L19" s="15">
         <v>17.175755080979702</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="15">
+        <v>17.246785826277829</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
@@ -1269,8 +1321,11 @@
       <c r="L20" s="15">
         <v>1.8631795589137379</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="15">
+        <v>1.7299267231872171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>15</v>
       </c>
@@ -1307,8 +1362,11 @@
       <c r="L21" s="15">
         <v>32.838796692664047</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="15">
+        <v>32.417697807858893</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>21</v>
       </c>
@@ -1345,8 +1403,11 @@
       <c r="L22" s="15">
         <v>26.748199140342599</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="15">
+        <v>13.57738374823861</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
@@ -1383,8 +1444,11 @@
       <c r="L23" s="15">
         <v>8.819184666377593</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="15">
+        <v>1.4831184047578438</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>15</v>
       </c>
@@ -1421,8 +1485,11 @@
       <c r="L24" s="15">
         <v>45.075501464953796</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="15">
+        <v>25.424775353949197</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>22</v>
       </c>
@@ -1459,8 +1526,11 @@
       <c r="L25" s="15">
         <v>22.63720315804489</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="15">
+        <v>28.259337058396849</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>14</v>
       </c>
@@ -1497,8 +1567,11 @@
       <c r="L26" s="15">
         <v>6.5075739764215905</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="15">
+        <v>18.681751343880823</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>15</v>
       </c>
@@ -1535,8 +1608,11 @@
       <c r="L27" s="15">
         <v>38.284059576513137</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="15">
+        <v>38.14301557851968</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>23</v>
       </c>
@@ -1573,8 +1649,11 @@
       <c r="L28" s="15">
         <v>23.966278037020849</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="15">
+        <v>29.550909035673744</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>14</v>
       </c>
@@ -1611,8 +1690,11 @@
       <c r="L29" s="15">
         <v>11.409880956908683</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="15">
+        <v>19.441305483663228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
@@ -1649,8 +1731,11 @@
       <c r="L30" s="15">
         <v>35.079762166299332</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="15">
+        <v>40.966897178968502</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>24</v>
       </c>
@@ -1687,8 +1772,11 @@
       <c r="L31" s="15">
         <v>16.385848928775125</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="15">
+        <v>17.68853538926977</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
         <v>14</v>
       </c>
@@ -1725,8 +1813,11 @@
       <c r="L32" s="15">
         <v>3.2448358437546645</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M32" s="15">
+        <v>4.1574114768313395</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>15</v>
       </c>
@@ -1763,8 +1854,11 @@
       <c r="L33" s="16">
         <v>28.789140981035917</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33" s="16">
+        <v>31.970511904314137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1777,7 +1871,7 @@
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1790,7 +1884,7 @@
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1803,7 +1897,7 @@
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>

--- a/ru/downloads/data-excel/3.5.2.1.xlsx
+++ b/ru/downloads/data-excel/3.5.2.1.xlsx
@@ -222,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -267,6 +267,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -547,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,7 +560,7 @@
     <col min="4" max="16384" width="8.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -578,7 +579,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -592,8 +593,9 @@
       <c r="K2" s="4"/>
       <c r="L2" s="17"/>
       <c r="M2" s="17"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N2" s="17"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -627,8 +629,11 @@
       <c r="M3" s="13">
         <v>2021</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3" s="13">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -668,8 +673,11 @@
       <c r="M4" s="14">
         <v>16.60175395812114</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4" s="14">
+        <v>11.927942610539198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -709,8 +717,11 @@
       <c r="M5" s="15">
         <v>7.3576531459900787</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5" s="15">
+        <v>3.0909744679837434</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -750,8 +761,11 @@
       <c r="M6" s="15">
         <v>25.982831460241147</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N6" s="15">
+        <v>20.963679772397647</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>16</v>
       </c>
@@ -791,8 +805,11 @@
       <c r="M7" s="15">
         <v>4.6978046797362003</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="15">
+        <v>4.6002717699014832</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -832,8 +849,11 @@
       <c r="M8" s="15">
         <v>0.36820478077087354</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -873,8 +893,11 @@
       <c r="M9" s="15">
         <v>8.8695886639561206</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="15">
+        <v>9.112830865859129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
@@ -914,8 +937,11 @@
       <c r="M10" s="15">
         <v>4.8763798385289059</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="15">
+        <v>3.5391993253978327</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -955,8 +981,11 @@
       <c r="M11" s="15">
         <v>0.63362020488109327</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="15">
+        <v>0.30955295909412422</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -996,8 +1025,11 @@
       <c r="M12" s="15">
         <v>9.0604897038469581</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="15">
+        <v>6.73157537222552</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>18</v>
       </c>
@@ -1037,8 +1069,11 @@
       <c r="M13" s="15">
         <v>6.1518067459522099</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="15">
+        <v>3.9173330796393815</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -1078,8 +1113,11 @@
       <c r="M14" s="15">
         <v>2.7662407973096332</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="15">
+        <v>0.7444796831494469</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -1119,8 +1157,11 @@
       <c r="M15" s="15">
         <v>9.5668603955896767</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="15">
+        <v>7.104530072727953</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>19</v>
       </c>
@@ -1160,8 +1201,11 @@
       <c r="M16" s="15">
         <v>19.43893106341184</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="15">
+        <v>23.0957399744971</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -1201,8 +1245,11 @@
       <c r="M17" s="15">
         <v>6.948932296552635</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="15">
+        <v>2.6274648905004008</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -1242,8 +1289,11 @@
       <c r="M18" s="15">
         <v>31.476235442241109</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="15">
+        <v>43.176223433734158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>20</v>
       </c>
@@ -1283,8 +1333,11 @@
       <c r="M19" s="15">
         <v>17.246785826277829</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="15">
+        <v>7.6660105666632132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
@@ -1324,8 +1377,11 @@
       <c r="M20" s="15">
         <v>1.7299267231872171</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="15">
+        <v>0.83437630371297455</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>15</v>
       </c>
@@ -1365,8 +1421,11 @@
       <c r="M21" s="15">
         <v>32.417697807858893</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="15">
+        <v>14.406256431364477</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>21</v>
       </c>
@@ -1406,8 +1465,11 @@
       <c r="M22" s="15">
         <v>13.57738374823861</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="15">
+        <v>34.201612992199827</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
@@ -1447,8 +1509,11 @@
       <c r="M23" s="15">
         <v>1.4831184047578438</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="15">
+        <v>4.4521615244201058</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>15</v>
       </c>
@@ -1488,8 +1553,11 @@
       <c r="M24" s="15">
         <v>25.424775353949197</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="15">
+        <v>63.433733622066185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>22</v>
       </c>
@@ -1529,8 +1597,11 @@
       <c r="M25" s="15">
         <v>28.259337058396849</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="15">
+        <v>20.535408979625672</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>14</v>
       </c>
@@ -1570,8 +1641,11 @@
       <c r="M26" s="15">
         <v>18.681751343880823</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="15">
+        <v>7.8632542639432348</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>15</v>
       </c>
@@ -1611,8 +1685,11 @@
       <c r="M27" s="15">
         <v>38.14301557851968</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="15">
+        <v>33.368028499329796</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>23</v>
       </c>
@@ -1652,8 +1729,11 @@
       <c r="M28" s="15">
         <v>29.550909035673744</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="15">
+        <v>19.301652062045072</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>14</v>
       </c>
@@ -1693,8 +1773,11 @@
       <c r="M29" s="15">
         <v>19.441305483663228</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="15">
+        <v>7.1220113855063829</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
@@ -1734,8 +1817,11 @@
       <c r="M30" s="15">
         <v>40.966897178968502</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="15">
+        <v>34.008685896558866</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>24</v>
       </c>
@@ -1775,8 +1861,11 @@
       <c r="M31" s="15">
         <v>17.68853538926977</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="15">
+        <v>7.8668258762379715</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
         <v>14</v>
       </c>
@@ -1816,8 +1905,11 @@
       <c r="M32" s="15">
         <v>4.1574114768313395</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N32" s="15">
+        <v>1.7266187050359711</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>15</v>
       </c>
@@ -1857,8 +1949,11 @@
       <c r="M33" s="16">
         <v>31.970511904314137</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N33" s="16">
+        <v>13.723068478111704</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1870,8 +1965,9 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N34" s="18"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1884,7 +1980,7 @@
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1897,7 +1993,7 @@
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
